--- a/Study 3/Shocks/GCAM/NDC_EI - 2065.xlsx
+++ b/Study 3/Shocks/GCAM/NDC_EI - 2065.xlsx
@@ -11962,7 +11962,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.0161482094203809</v>
+        <v>0.01614820942038091</v>
       </c>
     </row>
     <row r="17">
@@ -12122,7 +12122,7 @@
         </is>
       </c>
       <c r="H20" t="n">
-        <v>0.07630377965445351</v>
+        <v>0.07630377965445352</v>
       </c>
     </row>
     <row r="21">
@@ -12162,7 +12162,7 @@
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.03630149169000608</v>
+        <v>0.03630149169000609</v>
       </c>
     </row>
     <row r="22">
@@ -12202,7 +12202,7 @@
         </is>
       </c>
       <c r="H22" t="n">
-        <v>0.3927385835232541</v>
+        <v>0.3927385835232542</v>
       </c>
     </row>
     <row r="23">
@@ -12442,7 +12442,7 @@
         </is>
       </c>
       <c r="H28" t="n">
-        <v>0.06104957254755059</v>
+        <v>0.06104957254755061</v>
       </c>
     </row>
     <row r="29">
@@ -12522,7 +12522,7 @@
         </is>
       </c>
       <c r="H30" t="n">
-        <v>0.003299884944527764</v>
+        <v>0.003299884944527765</v>
       </c>
     </row>
     <row r="31">
